--- a/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
+++ b/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefb\OneDrive\Desktop\Logic Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{91ACB84B-2206-46F0-9D67-4BF5737F0815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90EAA4E-F9F5-4388-8F14-B319753488BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A09556-AC46-4778-BD90-12F6C62D10F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attila the Hun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Scenario</t>
   </si>
@@ -2644,33 +2644,6 @@
       </rPr>
       <t xml:space="preserve">
 Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To collect the Relics, the Player must have Monasteries unlocked.
-To destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Trade Cogs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the Player must have Docks and any Warships unlocked.
-To be able to build a Castle, the Player needs to have Castles unlocked</t>
     </r>
   </si>
   <si>
@@ -3998,6 +3971,402 @@
 Identical to Moderate
 Later:Identical to Moderate</t>
     </r>
+  </si>
+  <si>
+    <t>Buildingsanity Logic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To collect the Relics, the Player must have Monasteries unlocked.
+To destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Trade Cogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Player must have Docks and any Warships unlocked.
+To be able to build a Castle, the Player needs to have Castles unlocked</t>
+    </r>
+  </si>
+  <si>
+    <t>This Mission requires
+- Town Center unlocked
++ EITHER
+- Siege Workshop unlocked
+OR
+- Castle unlocked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This Mission requires
+- Town Center unlocked
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2FE2F5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orléans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying Castles requires EITHER
+-Siege Workshop unlocked
+OR
+- Castle unlocked
+Paying Tribute to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires
+- Market Unlocked
+Building a Castle for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires
+- Castle unlocked
+Collecting Relics requires
+- Monastery unlocked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2FE2F5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dyrrhachium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Eastern Roman Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, destroying Castles on Moderate/Hard and bringing Villagers to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires
+- Town Center unlocked
++ Villagers optained
++ Wood optained
++ Stone optained
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2FE2F5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dyrrhachium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Eastern Roman Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying Castles (on Moderate/Hard) additionally requires EITHER
+- Siege Workshop unlocked
+OR
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Units optained</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collecting the Goldmine requires EITHER
+- Town Center unlocked
+OR
+- Mining Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
++ Lumber Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
+Destroying the Castle and defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constantinople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires
+- Siege Workshop unlocked
+Destroying Trade Cogs requires
+- Dock unlocked
+Gathering Relics requires
+- Monastery unlocked
+Building a Castle requires
+- Castle unlocked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This Mission requires EITHER
+- Town Center unlocked
++ Western Base optained
+OR
+- Main Base optained
++ Either
+- Town Center unlocked
+OR
+- Mining Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
++ Lumber Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
+Defeating the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Persians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying Castles other than the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'s (lacking Murderholes) additionally requires
+- Siege Workshop unlocked</t>
+    </r>
+  </si>
+  <si>
+    <t>This Mission requires EITHER
+- Town Center unlocked
+OR
+- Mining Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
++ Lumber Camp/Ox Cart (with Civsanity --&gt; Georgians/Armenians) unlocked
+Defeating Verona/Patavium and destroying their Castles/Wonders requires EITHER
+- Siege Workshop unlocked
+OR
+- Castle unlocked
+Defeating Aquileia/Mediolanum and destroying their Castles/Wonders requires EITHER
+- Siege Workshop unlocked
+OR
+- Castle unlocked
+OR
+- Docks unlocked</t>
   </si>
 </sst>
 </file>
@@ -4030,12 +4399,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4076,13 +4439,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF3A3A3A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4158,6 +4514,17 @@
     <font>
       <sz val="14"/>
       <color rgb="FF2FE2F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4277,28 +4644,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4620,10 +4987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021AD6D-5731-4FBB-BF2F-CE4CC48789B4}">
-  <dimension ref="B2:Q9"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,10 +5010,11 @@
     <col min="15" max="15" width="24.85546875" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="34.28515625" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4695,255 +5063,276 @@
       <c r="Q3" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="R4" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
-        <v>65</v>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="N8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8" t="s">
-        <v>81</v>
+      <c r="R9" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
+++ b/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefb\OneDrive\Desktop\Logic Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A09556-AC46-4778-BD90-12F6C62D10F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49723FAC-1A4C-492A-8478-2080EE0A6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Attila the Hun" sheetId="1" r:id="rId1"/>
+    <sheet name="The Scourge of God" sheetId="2" r:id="rId2"/>
+    <sheet name="The Great Ride" sheetId="3" r:id="rId3"/>
+    <sheet name="The Walls of Constantinople" sheetId="4" r:id="rId4"/>
+    <sheet name="A Barbarian Betrothal" sheetId="5" r:id="rId5"/>
+    <sheet name="The Catalaunian Fields" sheetId="6" r:id="rId6"/>
+    <sheet name="The Fall of Rome" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
   <si>
     <t>Scenario</t>
   </si>
@@ -4368,12 +4374,255 @@
 OR
 - Docks unlocked</t>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>UniteTheHuns</t>
+  </si>
+  <si>
+    <t>FreeVillagers</t>
+  </si>
+  <si>
+    <t>ResolveScoutAny</t>
+  </si>
+  <si>
+    <t>CaptureHorsesCamp</t>
+  </si>
+  <si>
+    <t>CaptureHorseRuins</t>
+  </si>
+  <si>
+    <t>CaptureHorsesLumber</t>
+  </si>
+  <si>
+    <t>CaptureHorsesBehindBase</t>
+  </si>
+  <si>
+    <t>CaptureHorsesWest</t>
+  </si>
+  <si>
+    <t>CaptureHorsesRoman</t>
+  </si>
+  <si>
+    <t>KillTheBoar</t>
+  </si>
+  <si>
+    <t>BetrayBleda</t>
+  </si>
+  <si>
+    <t>BlowBledaOff</t>
+  </si>
+  <si>
+    <t>FreeScout</t>
+  </si>
+  <si>
+    <t>KillScout</t>
+  </si>
+  <si>
+    <t>GiveHorses</t>
+  </si>
+  <si>
+    <t>DefeatFirstPlayer</t>
+  </si>
+  <si>
+    <t>DefeatsanityBlue</t>
+  </si>
+  <si>
+    <t>DefeatsanityRed</t>
+  </si>
+  <si>
+    <t>DefeatsanityGreen</t>
+  </si>
+  <si>
+    <t>No items required</t>
+  </si>
+  <si>
+    <t>Requires 'UniteTheHuns'
+Otherwise the flagged Area is closed off</t>
+  </si>
+  <si>
+    <t>RedTC</t>
+  </si>
+  <si>
+    <t>GreenLumber</t>
+  </si>
+  <si>
+    <t>PurpleVills</t>
+  </si>
+  <si>
+    <t>GreyMining</t>
+  </si>
+  <si>
+    <t>CyanTC</t>
+  </si>
+  <si>
+    <t>ScythianVills</t>
+  </si>
+  <si>
+    <t>BuildTC</t>
+  </si>
+  <si>
+    <t>BeatTheRomans</t>
+  </si>
+  <si>
+    <t>DefeatsanityCyan</t>
+  </si>
+  <si>
+    <t>DefeatsanityGrey</t>
+  </si>
+  <si>
+    <t>DefeatsanityPurple</t>
+  </si>
+  <si>
+    <t>DefeatsanityOrange</t>
+  </si>
+  <si>
+    <t>GreenDock1</t>
+  </si>
+  <si>
+    <t>GreenDock2</t>
+  </si>
+  <si>
+    <t>FindGold</t>
+  </si>
+  <si>
+    <t>GreenTC</t>
+  </si>
+  <si>
+    <t>BlueDockNorth</t>
+  </si>
+  <si>
+    <t>BlueDocksSouth</t>
+  </si>
+  <si>
+    <t>BuildCastle</t>
+  </si>
+  <si>
+    <t>RedTradeCarts</t>
+  </si>
+  <si>
+    <t>BlueCogs</t>
+  </si>
+  <si>
+    <t>RedDock</t>
+  </si>
+  <si>
+    <t>RedMarket</t>
+  </si>
+  <si>
+    <t>ThreatenWonder</t>
+  </si>
+  <si>
+    <t>DestroyWonder</t>
+  </si>
+  <si>
+    <t>BlueMonastery</t>
+  </si>
+  <si>
+    <t>Requires
+- Red Gold
++ GreenGold</t>
+  </si>
+  <si>
+    <t>Requires
+- Purple Villagers</t>
+  </si>
+  <si>
+    <t>Requires
+- Purple Villagers
++Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>Standard:
+No items required
+Moderate/Hard:
+Requires
+- Purple Villagers</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Bleda's Base
+OR
+- Attilla's Base
++Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>DefeatBurgundyAll</t>
+  </si>
+  <si>
+    <t>DefeatMetz</t>
+  </si>
+  <si>
+    <t>DefeatOrléans</t>
+  </si>
+  <si>
+    <t>DefeatRomanArmy</t>
+  </si>
+  <si>
+    <t>TributeBurgundyAll</t>
+  </si>
+  <si>
+    <t>CastleBurgundyAll</t>
+  </si>
+  <si>
+    <t>DefeatOrAllyBurgundyAny</t>
+  </si>
+  <si>
+    <t>Requires
+-Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>DefeatAlans</t>
+  </si>
+  <si>
+    <t>DefeatVisigoths</t>
+  </si>
+  <si>
+    <t>DefeatRomans</t>
+  </si>
+  <si>
+    <t>DefeatPatavium</t>
+  </si>
+  <si>
+    <t>DefeatMediolanum</t>
+  </si>
+  <si>
+    <t>DefeatAquileia</t>
+  </si>
+  <si>
+    <t>DefeatVerona</t>
+  </si>
+  <si>
+    <t>DefeatTheItalian</t>
+  </si>
+  <si>
+    <t>MeetThePope</t>
+  </si>
+  <si>
+    <t>DestroyPurpleWonder</t>
+  </si>
+  <si>
+    <t>DestroyGreenWonder</t>
+  </si>
+  <si>
+    <t>DestroyRedWonder</t>
+  </si>
+  <si>
+    <t>DestroyOrangeWonder</t>
+  </si>
+  <si>
+    <t>DestroyPurpleWonder2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4529,6 +4778,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4538,7 +4792,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4626,11 +4880,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4666,6 +4950,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4989,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021AD6D-5731-4FBB-BF2F-CE4CC48789B4}">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,4 +5629,821 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF25A3-39E5-43BC-AA21-825EC7632C75}">
+  <dimension ref="B1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC364C8-CB39-4783-9CFD-864E580ACCC1}">
+  <dimension ref="B1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00C403-3C77-4C50-8FD7-B532FB244FE1}">
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA707A4-84AD-4A37-9A2B-76628AC8689E}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19264B5D-9C82-4108-AEE9-967C34FA97B5}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0107F7F4-65A4-4F3B-ABD6-BF0903CF1797}">
+  <dimension ref="B1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
+++ b/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefb\OneDrive\Desktop\Logic Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49723FAC-1A4C-492A-8478-2080EE0A6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81CCDE2-4BC5-48F1-A5CC-86BCDF63FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="639" activeTab="6" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Attila the Hun" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="183">
   <si>
     <t>Scenario</t>
   </si>
@@ -4532,11 +4532,6 @@
 - Purple Villagers</t>
   </si>
   <si>
-    <t>Requires
-- Purple Villagers
-+Town Center Wood/Stone</t>
-  </si>
-  <si>
     <t>Standard:
 No items required
 Moderate/Hard:
@@ -4544,78 +4539,184 @@
 - Purple Villagers</t>
   </si>
   <si>
+    <t>DefeatBurgundyAll</t>
+  </si>
+  <si>
+    <t>DefeatMetz</t>
+  </si>
+  <si>
+    <t>DefeatOrléans</t>
+  </si>
+  <si>
+    <t>DefeatRomanArmy</t>
+  </si>
+  <si>
+    <t>TributeBurgundyAll</t>
+  </si>
+  <si>
+    <t>CastleBurgundyAll</t>
+  </si>
+  <si>
+    <t>DefeatOrAllyBurgundyAny</t>
+  </si>
+  <si>
+    <t>Requires
+-Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>DefeatAlans</t>
+  </si>
+  <si>
+    <t>DefeatVisigoths</t>
+  </si>
+  <si>
+    <t>DefeatRomans</t>
+  </si>
+  <si>
+    <t>DefeatPatavium</t>
+  </si>
+  <si>
+    <t>DefeatMediolanum</t>
+  </si>
+  <si>
+    <t>DefeatAquileia</t>
+  </si>
+  <si>
+    <t>DefeatVerona</t>
+  </si>
+  <si>
+    <t>DefeatTheItalian</t>
+  </si>
+  <si>
+    <t>MeetThePope</t>
+  </si>
+  <si>
+    <t>DestroyPurpleWonder</t>
+  </si>
+  <si>
+    <t>DestroyGreenWonder</t>
+  </si>
+  <si>
+    <t>DestroyRedWonder</t>
+  </si>
+  <si>
+    <t>DestroyOrangeWonder</t>
+  </si>
+  <si>
+    <t>DestroyPurpleWonder2</t>
+  </si>
+  <si>
+    <t>Logic (Buildingsanity)</t>
+  </si>
+  <si>
     <t>Requires EITHER
 - Bleda's Base
 OR
 - Attilla's Base
-+Town Center Wood/Stone</t>
-  </si>
-  <si>
-    <t>DefeatBurgundyAll</t>
-  </si>
-  <si>
-    <t>DefeatMetz</t>
-  </si>
-  <si>
-    <t>DefeatOrléans</t>
-  </si>
-  <si>
-    <t>DefeatRomanArmy</t>
-  </si>
-  <si>
-    <t>TributeBurgundyAll</t>
-  </si>
-  <si>
-    <t>CastleBurgundyAll</t>
-  </si>
-  <si>
-    <t>DefeatOrAllyBurgundyAny</t>
++ Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- No Item
+OR
+- Town Center</t>
   </si>
   <si>
     <t>Requires
--Town Center Wood/Stone</t>
-  </si>
-  <si>
-    <t>DefeatAlans</t>
-  </si>
-  <si>
-    <t>DefeatVisigoths</t>
-  </si>
-  <si>
-    <t>DefeatRomans</t>
-  </si>
-  <si>
-    <t>DefeatPatavium</t>
-  </si>
-  <si>
-    <t>DefeatMediolanum</t>
-  </si>
-  <si>
-    <t>DefeatAquileia</t>
-  </si>
-  <si>
-    <t>DefeatVerona</t>
-  </si>
-  <si>
-    <t>DefeatTheItalian</t>
-  </si>
-  <si>
-    <t>MeetThePope</t>
-  </si>
-  <si>
-    <t>DestroyPurpleWonder</t>
-  </si>
-  <si>
-    <t>DestroyGreenWonder</t>
-  </si>
-  <si>
-    <t>DestroyRedWonder</t>
-  </si>
-  <si>
-    <t>DestroyOrangeWonder</t>
-  </si>
-  <si>
-    <t>DestroyPurpleWonder2</t>
+-Dock</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Siege Workshop
+OR
+- Dock
+OR
+-Castle
++Mining Camp/Town Center</t>
+  </si>
+  <si>
+    <t>Requires
+-Castle
++Mining Camp/Town Center</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Siege Workshop
+OR
+-Castle
++Mining Camp/Town Center</t>
+  </si>
+  <si>
+    <t>Requires
+- Town Center
++ Castle</t>
+  </si>
+  <si>
+    <t>Requires
+- Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>Requires
+- Purple Villagers
++ Town Center Wood/Stone</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+(
+- Siege Workshop
+OR
+- Castle
++ Mining Camp/Town Center)
+OR
+(
+- Town Center
++ Siege Workshop
+OR
+- Castle)</t>
+  </si>
+  <si>
+    <t>Standard:
+No items required
+Moderate:
+Requires EITHER
+(
+- Siege Workshop
+OR
+- Castle
++ Mining Camp/Town Center)
+OR
+(
+- Town Center
++ Siege Workshop
+OR
+- Castle)</t>
+  </si>
+  <si>
+    <t>Requires
+- Town Center
++ Market</t>
+  </si>
+  <si>
+    <t>Requires
+- Town Center
++ 1 Non-Siege Military Building
++ Castle
+OR
+- Siege Workshop</t>
+  </si>
+  <si>
+    <t>Standard:
+Requires 1 Non-Siege Military Building
+Moderate/Hard:
+Requires EITHER
+(
+- Siege Workshop
+OR
+- Dock
+OR
+-Castle
++Mining Camp/Town Center)
++ 1 Non-Siege Military Building</t>
   </si>
 </sst>
 </file>
@@ -5279,9 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021AD6D-5731-4FBB-BF2F-CE4CC48789B4}">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5633,188 +5732,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF25A3-39E5-43BC-AA21-825EC7632C75}">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="8"/>
     </row>
@@ -5826,148 +5989,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC364C8-CB39-4783-9CFD-864E580ACCC1}">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="93.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5978,176 +6190,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00C403-3C77-4C50-8FD7-B532FB244FE1}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6158,88 +6431,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA707A4-84AD-4A37-9A2B-76628AC8689E}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="C6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="C7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="C8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="C9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6250,65 +6551,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19264B5D-9C82-4108-AEE9-967C34FA97B5}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6318,128 +6649,171 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0107F7F4-65A4-4F3B-ABD6-BF0903CF1797}">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="C12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>115</v>
       </c>
     </row>

--- a/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
+++ b/docs/Logic Requirements/Ageipelago Attila the Hun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefb\OneDrive\Desktop\Logic Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81CCDE2-4BC5-48F1-A5CC-86BCDF63FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6688105-2C17-4E37-9015-109A86479B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="639" activeTab="6" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="639" activeTab="6" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Attila the Hun" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="187">
   <si>
     <t>Scenario</t>
   </si>
@@ -4532,13 +4532,6 @@
 - Purple Villagers</t>
   </si>
   <si>
-    <t>Standard:
-No items required
-Moderate/Hard:
-Requires
-- Purple Villagers</t>
-  </si>
-  <si>
     <t>DefeatBurgundyAll</t>
   </si>
   <si>
@@ -4717,6 +4710,32 @@
 -Castle
 +Mining Camp/Town Center)
 + 1 Non-Siege Military Building</t>
+  </si>
+  <si>
+    <t>Requires Bleda's Base</t>
+  </si>
+  <si>
+    <t>Town Center</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Purple Villagers
++ Town Center Wood/Stone
+OR
+Scythian Troops</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Town Center
++ 1 Non-Siege Military Building
+OR
+No items required</t>
+  </si>
+  <si>
+    <t>Requires EITHER
+- Red Gold
+OR
+- GreenGold</t>
   </si>
 </sst>
 </file>
@@ -5735,7 +5754,7 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5773,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
@@ -5762,10 +5781,10 @@
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5801,12 +5820,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>115</v>
@@ -5916,10 +5935,10 @@
         <v>109</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
@@ -5938,10 +5957,10 @@
         <v>111</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="300" x14ac:dyDescent="0.25">
@@ -5949,10 +5968,10 @@
         <v>112</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
@@ -5960,10 +5979,10 @@
         <v>113</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="243.75" x14ac:dyDescent="0.25">
@@ -5971,10 +5990,10 @@
         <v>114</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -5992,7 +6011,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,18 +6029,18 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6095,21 +6114,21 @@
         <v>123</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>144</v>
+      <c r="C11" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6139,15 +6158,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>145</v>
+      <c r="C15" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6192,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00C403-3C77-4C50-8FD7-B532FB244FE1}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,7 +6231,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
@@ -6274,22 +6293,22 @@
       <c r="B8" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
+      <c r="C9" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -6300,7 +6319,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6325,15 +6344,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>115</v>
+      <c r="C13" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6362,22 +6381,22 @@
       <c r="B16" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>115</v>
+      <c r="C16" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>115</v>
+      <c r="C17" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6406,11 +6425,11 @@
       <c r="B20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>115</v>
+      <c r="C20" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6434,7 +6453,7 @@
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,7 +6472,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
@@ -6461,15 +6480,15 @@
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>115</v>
@@ -6480,62 +6499,62 @@
     </row>
     <row r="5" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>115</v>
@@ -6573,7 +6592,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
@@ -6581,43 +6600,43 @@
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="131.25" x14ac:dyDescent="0.25">
@@ -6625,10 +6644,10 @@
         <v>113</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -6671,7 +6690,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="300" x14ac:dyDescent="0.25">
@@ -6682,131 +6701,131 @@
         <v>115</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="300" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>112</v>
       </c>
